--- a/My excel.xlsx
+++ b/My excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="111" windowWidth="14811" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dfsfffd</t>
   </si>
   <si>
     <t>df</t>
+  </si>
+  <si>
+    <t>I changed it</t>
   </si>
 </sst>
 </file>
@@ -364,17 +367,22 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N18" t="s">
         <v>1</v>
       </c>
